--- a/data_4.xlsx
+++ b/data_4.xlsx
@@ -109,16 +109,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2.9233276440203766</v>
+        <v>2.802701593942899</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20802287980235878</v>
+        <v>0.13157548511241982</v>
       </c>
       <c r="D2" t="n">
-        <v>4.324079502259877</v>
+        <v>4.512912164881126</v>
       </c>
       <c r="E2" t="n">
-        <v>0.16817378832056967</v>
+        <v>0.17585052873406262</v>
       </c>
       <c r="F2" t="n">
         <v>0.051603022626239226</v>
@@ -129,16 +129,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>9.949188450087293</v>
+        <v>4.434800283998235</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2111018444939247</v>
+        <v>0.2326238691048382</v>
       </c>
       <c r="D3" t="n">
-        <v>8.254421219368265</v>
+        <v>8.340795432966571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3341896777393194</v>
+        <v>0.3379910158644751</v>
       </c>
       <c r="F3" t="n">
         <v>0.28663459725678275</v>
@@ -149,16 +149,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>11.750785279459445</v>
+        <v>4.9790634397756515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5808752757037166</v>
+        <v>0.635800645782742</v>
       </c>
       <c r="D4" t="n">
-        <v>9.691465826282474</v>
+        <v>9.801581860847776</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3983383389231306</v>
+        <v>0.40333443331747243</v>
       </c>
       <c r="F4" t="n">
         <v>0.6617623801169781</v>
